--- a/Documents/AnalyseRisque.xlsx
+++ b/Documents/AnalyseRisque.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothe JARRT\Documents\GitHub\worknshare\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OneDrive\OneDrive - Reseau-GES\2i1\ProjetAnnuel\worknshare-master\worknshare\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD27923-A738-4230-8C87-0F74A16E40FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{ABD27923-A738-4230-8C87-0F74A16E40FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{951C433C-439E-4C12-91E7-26584F752834}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{C4ADA348-725C-4270-B479-38E6F67AAF4F}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="20496" windowHeight="7692" activeTab="1" xr2:uid="{C4ADA348-725C-4270-B479-38E6F67AAF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t>Menaces</t>
   </si>
@@ -649,27 +650,6 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,12 +657,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,6 +722,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1067,453 +1068,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA78C62-56E9-4EF1-AA30-286A574A7FD2}">
   <dimension ref="C2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="D17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="3:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>3</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="3:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4</v>
-      </c>
-      <c r="F8" s="15">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15">
-        <v>3</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="23" t="s">
+    <row r="9" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="15">
-        <v>4</v>
-      </c>
-      <c r="F9" s="15">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>3</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+    <row r="10" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4</v>
-      </c>
-      <c r="F10" s="15">
-        <v>3</v>
-      </c>
-      <c r="G10" s="15">
-        <v>4</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="3:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="15">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="15">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15">
-        <v>3</v>
-      </c>
-      <c r="G12" s="15">
-        <v>3</v>
-      </c>
-      <c r="H12" s="28" t="s">
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="23" t="s">
+    <row r="13" spans="3:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="15">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15">
-        <v>3</v>
-      </c>
-      <c r="G13" s="15">
-        <v>3</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
-        <v>2</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="22" t="s">
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+    <row r="16" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15">
-        <v>2</v>
-      </c>
-      <c r="G16" s="15">
-        <v>3</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="20" t="s">
+    <row r="17" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="15">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15">
-        <v>2</v>
-      </c>
-      <c r="G17" s="15">
-        <v>3</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="23" t="s">
+    <row r="18" spans="3:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15">
-        <v>4</v>
-      </c>
-      <c r="F18" s="15">
-        <v>3</v>
-      </c>
-      <c r="G18" s="15">
-        <v>4</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="20" t="s">
+    <row r="19" spans="3:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="15">
-        <v>2</v>
-      </c>
-      <c r="F19" s="15">
-        <v>2</v>
-      </c>
-      <c r="G19" s="15">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="3:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="20" t="s">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="3:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="15">
-        <v>2</v>
-      </c>
-      <c r="F20" s="15">
-        <v>2</v>
-      </c>
-      <c r="G20" s="15">
-        <v>2</v>
-      </c>
-      <c r="H20" s="22" t="s">
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="31" t="s">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="23" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C24" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="32"/>
-    </row>
-    <row r="26" spans="3:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="32" t="s">
+    <row r="25" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="3:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="C26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="3:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="34" t="s">
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="3:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H3:H4"/>
@@ -1533,4 +1534,455 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAFE386-5787-4D77-A5D3-B7FDA88CE689}">
+  <dimension ref="C3:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" customWidth="1"/>
+    <col min="9" max="9" width="52.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="3:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E6:G22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="4"/>
+        <color rgb="FF66FE78"/>
+        <color rgb="FFF20000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/AnalyseRisque.xlsx
+++ b/Documents/AnalyseRisque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothe JARRT\Documents\GitHub\worknshare\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD27923-A738-4230-8C87-0F74A16E40FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8059304F-EC2B-4A93-8830-AA6A0309B1E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{C4ADA348-725C-4270-B479-38E6F67AAF4F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Menaces</t>
   </si>
@@ -70,14 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coupure d'élèctricité </t>
-  </si>
-  <si>
-    <t>Maintient de l'alimentation électrique :
- - tests et maintenance réguliers
- - Procédures de secours (générateur de secours)</t>
-  </si>
-  <si>
-    <t>alimentation de secours (groupe)</t>
   </si>
   <si>
     <t>Incendie</t>
@@ -123,22 +115,7 @@
     </r>
   </si>
   <si>
-    <t>Organisation de la maintenance applicative, et du support (qualité de l'assistance, engagements contractuels)</t>
-  </si>
-  <si>
     <t>Erreur de manipulation ou dans le suivi d'une procédure</t>
-  </si>
-  <si>
-    <t>- Contrôle de la mise en production 
-- Contrôle de la conformité des configurations
-- Authentification, gestion des accès, filtrage, cloisonnement.
-- Vérification des systèmes après intervention</t>
-  </si>
-  <si>
-    <t>- Sauvegardes des configurations applicatives, réseau, etc… et des fichiers et configurations bureautiques</t>
-  </si>
-  <si>
-    <t>Erreur de saisie ou de frappe</t>
   </si>
   <si>
     <t>Contrôle de saisie unitaires (double saisie, plages, cohérence, comparaison, etc…)
@@ -148,9 +125,6 @@
     <t>Dégât dû au vieillissement</t>
   </si>
   <si>
-    <t>gestion des versions de fichier, et politique d'archivage</t>
-  </si>
-  <si>
     <t>Sauvegardes des données, changement du matériel</t>
   </si>
   <si>
@@ -158,9 +132,6 @@
   </si>
   <si>
     <t>Qualité et sécurité de la fourniture électrique : redondance, onduleur, maintenance et vérification des équipements</t>
-  </si>
-  <si>
-    <t>Sécurité des équipements de serviture : contrats adaptés aux besoins, redondance ou remplacement rapide</t>
   </si>
   <si>
     <t>Incident d'exploitation</t>
@@ -242,6 +213,44 @@
   </si>
   <si>
     <t xml:space="preserve">Contrôle du système, mise en place d'une seconde ligne / réseau </t>
+  </si>
+  <si>
+    <t>alimentation de secours (groupe), accumulateur</t>
+  </si>
+  <si>
+    <t>Maintient de l'alimentation électrique :
+ - tests et maintenance réguliers
+ - Procédures de secours (générateur de secours, accumulateur)</t>
+  </si>
+  <si>
+    <t>Organisation de la maintenance applicative, et du support (qualité de l'assistance, engagements contractuels) et mise en place du patch</t>
+  </si>
+  <si>
+    <t>Erreur de saisie</t>
+  </si>
+  <si>
+    <t>- Contrôle de la mise en production 
+- Contrôle de la conformité des configurations
+- Authentification, gestion des accès, filtrage, cloisonnement
+- Vérification des systèmes après intervention                                           - Backup cyclique</t>
+  </si>
+  <si>
+    <t>- Sauvegardes des configurations applicatives, réseau, etc… et des fichiers et configurations bureautiques et restauration</t>
+  </si>
+  <si>
+    <t>gestion des versions de fichier, et politique d'archivage.          Gestion du parc informatique (changement du matériel trop ancien)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sécurité des équipements de serviture : remplacement rapide et test du matériel </t>
+  </si>
+  <si>
+    <t>Bannissement du compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacement du matériel </t>
+  </si>
+  <si>
+    <t>action Volontaire ou involontaire</t>
   </si>
 </sst>
 </file>
@@ -649,27 +658,6 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,12 +665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,6 +730,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1067,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA78C62-56E9-4EF1-AA30-286A574A7FD2}">
   <dimension ref="C2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,434 +1092,444 @@
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>3</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="20" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21" t="s">
+    </row>
+    <row r="9" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="15">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15">
-        <v>3</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="23" t="s">
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="15">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>3</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="15">
-        <v>3</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="15">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="15">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15">
-        <v>3</v>
-      </c>
-      <c r="G12" s="15">
-        <v>3</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="15">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15">
-        <v>3</v>
-      </c>
-      <c r="G13" s="15">
-        <v>3</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
-        <v>2</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15">
-        <v>2</v>
-      </c>
-      <c r="G16" s="15">
-        <v>3</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="15">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15">
-        <v>2</v>
-      </c>
-      <c r="G17" s="15">
-        <v>3</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15">
-        <v>4</v>
-      </c>
-      <c r="F18" s="15">
-        <v>3</v>
-      </c>
-      <c r="G18" s="15">
-        <v>4</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="H21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2</v>
-      </c>
-      <c r="F19" s="15">
-        <v>2</v>
-      </c>
-      <c r="G19" s="15">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="3:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="15">
-        <v>2</v>
-      </c>
-      <c r="F20" s="15">
-        <v>2</v>
-      </c>
-      <c r="G20" s="15">
-        <v>2</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15">
-        <v>1</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="31" t="s">
-        <v>54</v>
+      <c r="C24" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="32"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="3:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="33"/>
+      <c r="C26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="3:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="34" t="s">
-        <v>56</v>
+      <c r="C27" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1532,5 +1551,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>